--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slit3-Robo2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slit3-Robo2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.096169666666666</v>
+        <v>0.4767983333333334</v>
       </c>
       <c r="H2">
-        <v>6.288508999999999</v>
+        <v>1.430395</v>
       </c>
       <c r="I2">
-        <v>0.01755614486036394</v>
+        <v>0.003723890400117776</v>
       </c>
       <c r="J2">
-        <v>0.01755614486036394</v>
+        <v>0.003723890400117776</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.847863</v>
+        <v>1.404869</v>
       </c>
       <c r="N2">
-        <v>5.543589</v>
+        <v>4.214607</v>
       </c>
       <c r="O2">
-        <v>0.7296835394802672</v>
+        <v>0.6692718564235921</v>
       </c>
       <c r="P2">
-        <v>0.7296835394802672</v>
+        <v>0.6692718564235923</v>
       </c>
       <c r="Q2">
-        <v>3.873434368755666</v>
+        <v>0.6698391977516667</v>
       </c>
       <c r="R2">
-        <v>34.860909318801</v>
+        <v>6.028552779765</v>
       </c>
       <c r="S2">
-        <v>0.01281042992133866</v>
+        <v>0.002492295041204817</v>
       </c>
       <c r="T2">
-        <v>0.01281042992133866</v>
+        <v>0.002492295041204818</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.096169666666666</v>
+        <v>0.4767983333333334</v>
       </c>
       <c r="H3">
-        <v>6.288508999999999</v>
+        <v>1.430395</v>
       </c>
       <c r="I3">
-        <v>0.01755614486036394</v>
+        <v>0.003723890400117776</v>
       </c>
       <c r="J3">
-        <v>0.01755614486036394</v>
+        <v>0.003723890400117776</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.983909</v>
       </c>
       <c r="O3">
-        <v>0.261135113213977</v>
+        <v>0.3150411080808892</v>
       </c>
       <c r="P3">
-        <v>0.261135113213977</v>
+        <v>0.3150411080808893</v>
       </c>
       <c r="Q3">
-        <v>1.386203289075667</v>
+        <v>0.3153081682283334</v>
       </c>
       <c r="R3">
-        <v>12.475829601681</v>
+        <v>2.837773514055</v>
       </c>
       <c r="S3">
-        <v>0.004584525875712117</v>
+        <v>0.00117317855802489</v>
       </c>
       <c r="T3">
-        <v>0.004584525875712117</v>
+        <v>0.00117317855802489</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.096169666666666</v>
+        <v>0.4767983333333334</v>
       </c>
       <c r="H4">
-        <v>6.288508999999999</v>
+        <v>1.430395</v>
       </c>
       <c r="I4">
-        <v>0.01755614486036394</v>
+        <v>0.003723890400117776</v>
       </c>
       <c r="J4">
-        <v>0.01755614486036394</v>
+        <v>0.003723890400117776</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.023251</v>
+        <v>0.03292866666666667</v>
       </c>
       <c r="N4">
-        <v>0.069753</v>
+        <v>0.098786</v>
       </c>
       <c r="O4">
-        <v>0.009181347305755726</v>
+        <v>0.01568703549551856</v>
       </c>
       <c r="P4">
-        <v>0.009181347305755726</v>
+        <v>0.01568703549551856</v>
       </c>
       <c r="Q4">
-        <v>0.04873804091966666</v>
+        <v>0.01570033338555556</v>
       </c>
       <c r="R4">
-        <v>0.4386423682769999</v>
+        <v>0.14130300047</v>
       </c>
       <c r="S4">
-        <v>0.0001611890633131597</v>
+        <v>5.841680088806837E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001611890633131597</v>
+        <v>5.841680088806837E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>326.119697</v>
       </c>
       <c r="I5">
-        <v>0.9104550287436967</v>
+        <v>0.8490200321922391</v>
       </c>
       <c r="J5">
-        <v>0.9104550287436968</v>
+        <v>0.8490200321922391</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.847863</v>
+        <v>1.404869</v>
       </c>
       <c r="N5">
-        <v>5.543589</v>
+        <v>4.214607</v>
       </c>
       <c r="O5">
-        <v>0.7296835394802672</v>
+        <v>0.6692718564235921</v>
       </c>
       <c r="P5">
-        <v>0.7296835394802672</v>
+        <v>0.6692718564235923</v>
       </c>
       <c r="Q5">
-        <v>200.8748405525037</v>
+        <v>152.7184842015643</v>
       </c>
       <c r="R5">
-        <v>1807.873564972533</v>
+        <v>1374.466357814079</v>
       </c>
       <c r="S5">
-        <v>0.664344047911309</v>
+        <v>0.5682252130861178</v>
       </c>
       <c r="T5">
-        <v>0.6643440479113091</v>
+        <v>0.568225213086118</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>326.119697</v>
       </c>
       <c r="I6">
-        <v>0.9104550287436967</v>
+        <v>0.8490200321922391</v>
       </c>
       <c r="J6">
-        <v>0.9104550287436968</v>
+        <v>0.8490200321922391</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1.983909</v>
       </c>
       <c r="O6">
-        <v>0.261135113213977</v>
+        <v>0.3150411080808892</v>
       </c>
       <c r="P6">
-        <v>0.261135113213977</v>
+        <v>0.3150411080808893</v>
       </c>
       <c r="Q6">
         <v>71.88797799506366</v>
@@ -818,10 +818,10 @@
         <v>646.9918019555729</v>
       </c>
       <c r="S6">
-        <v>0.2377517770072199</v>
+        <v>0.2674762117247152</v>
       </c>
       <c r="T6">
-        <v>0.2377517770072199</v>
+        <v>0.2674762117247153</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>326.119697</v>
       </c>
       <c r="I7">
-        <v>0.9104550287436967</v>
+        <v>0.8490200321922391</v>
       </c>
       <c r="J7">
-        <v>0.9104550287436968</v>
+        <v>0.8490200321922391</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -862,28 +862,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.023251</v>
+        <v>0.03292866666666667</v>
       </c>
       <c r="N7">
-        <v>0.069753</v>
+        <v>0.098786</v>
       </c>
       <c r="O7">
-        <v>0.009181347305755726</v>
+        <v>0.01568703549551856</v>
       </c>
       <c r="P7">
-        <v>0.009181347305755726</v>
+        <v>0.01568703549551856</v>
       </c>
       <c r="Q7">
-        <v>2.527536358315666</v>
+        <v>3.579562265315778</v>
       </c>
       <c r="R7">
-        <v>22.747827224841</v>
+        <v>32.216060387842</v>
       </c>
       <c r="S7">
-        <v>0.008359203825167692</v>
+        <v>0.01331860738140596</v>
       </c>
       <c r="T7">
-        <v>0.008359203825167692</v>
+        <v>0.01331860738140596</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.595326333333334</v>
+        <v>18.85432833333333</v>
       </c>
       <c r="H8">
-        <v>25.785979</v>
+        <v>56.562985</v>
       </c>
       <c r="I8">
-        <v>0.07198882639593941</v>
+        <v>0.1472560774076432</v>
       </c>
       <c r="J8">
-        <v>0.07198882639593941</v>
+        <v>0.1472560774076432</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.847863</v>
+        <v>1.404869</v>
       </c>
       <c r="N8">
-        <v>5.543589</v>
+        <v>4.214607</v>
       </c>
       <c r="O8">
-        <v>0.7296835394802672</v>
+        <v>0.6692718564235921</v>
       </c>
       <c r="P8">
-        <v>0.7296835394802672</v>
+        <v>0.6692718564235923</v>
       </c>
       <c r="Q8">
-        <v>15.88298550429234</v>
+        <v>26.48786139132166</v>
       </c>
       <c r="R8">
-        <v>142.946869538631</v>
+        <v>238.390752521895</v>
       </c>
       <c r="S8">
-        <v>0.05252906164761956</v>
+        <v>0.09855434829626951</v>
       </c>
       <c r="T8">
-        <v>0.05252906164761956</v>
+        <v>0.09855434829626956</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.595326333333334</v>
+        <v>18.85432833333333</v>
       </c>
       <c r="H9">
-        <v>25.785979</v>
+        <v>56.562985</v>
       </c>
       <c r="I9">
-        <v>0.07198882639593941</v>
+        <v>0.1472560774076432</v>
       </c>
       <c r="J9">
-        <v>0.07198882639593941</v>
+        <v>0.1472560774076432</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>1.983909</v>
       </c>
       <c r="O9">
-        <v>0.261135113213977</v>
+        <v>0.3150411080808892</v>
       </c>
       <c r="P9">
-        <v>0.261135113213977</v>
+        <v>0.3150411080808893</v>
       </c>
       <c r="Q9">
-        <v>5.684115090212334</v>
+        <v>12.46842388981833</v>
       </c>
       <c r="R9">
-        <v>51.157035811911</v>
+        <v>112.215815008365</v>
       </c>
       <c r="S9">
-        <v>0.01879881033104497</v>
+        <v>0.04639171779814909</v>
       </c>
       <c r="T9">
-        <v>0.01879881033104497</v>
+        <v>0.04639171779814911</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.595326333333334</v>
+        <v>18.85432833333333</v>
       </c>
       <c r="H10">
-        <v>25.785979</v>
+        <v>56.562985</v>
       </c>
       <c r="I10">
-        <v>0.07198882639593941</v>
+        <v>0.1472560774076432</v>
       </c>
       <c r="J10">
-        <v>0.07198882639593941</v>
+        <v>0.1472560774076432</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1048,28 +1048,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.023251</v>
+        <v>0.03292866666666667</v>
       </c>
       <c r="N10">
-        <v>0.069753</v>
+        <v>0.098786</v>
       </c>
       <c r="O10">
-        <v>0.009181347305755726</v>
+        <v>0.01568703549551856</v>
       </c>
       <c r="P10">
-        <v>0.009181347305755726</v>
+        <v>0.01568703549551856</v>
       </c>
       <c r="Q10">
-        <v>0.1998499325763333</v>
+        <v>0.6208478929122222</v>
       </c>
       <c r="R10">
-        <v>1.798649393187</v>
+        <v>5.587631036209999</v>
       </c>
       <c r="S10">
-        <v>0.000660954417274875</v>
+        <v>0.002310011313224527</v>
       </c>
       <c r="T10">
-        <v>0.000660954417274875</v>
+        <v>0.002310011313224527</v>
       </c>
     </row>
   </sheetData>
